--- a/src/assets/cell_line.xlsx
+++ b/src/assets/cell_line.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9590A2-55D2-784B-AA63-99D11FB257E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01596668-BD61-8D46-8A1C-68F54F4562B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16040" xr2:uid="{D7A8E61A-F8A2-AE4A-8DBE-BC623E5F7C90}"/>
+    <workbookView xWindow="32800" yWindow="-780" windowWidth="27640" windowHeight="16040" xr2:uid="{D7A8E61A-F8A2-AE4A-8DBE-BC623E5F7C90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="submission" sheetId="5" r:id="rId1"/>
+    <sheet name="person" sheetId="4" r:id="rId2"/>
+    <sheet name="organization" sheetId="3" r:id="rId3"/>
+    <sheet name="cell line" sheetId="1" r:id="rId4"/>
+    <sheet name="faang_field_values" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Sample Name</t>
   </si>
@@ -100,6 +104,90 @@
   </si>
   <si>
     <t>Derived From</t>
+  </si>
+  <si>
+    <t>array manufacturer</t>
+  </si>
+  <si>
+    <t>biomaterial provider</t>
+  </si>
+  <si>
+    <t>biosequence provider</t>
+  </si>
+  <si>
+    <t>consortium member</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>curator</t>
+  </si>
+  <si>
+    <t>data analyst</t>
+  </si>
+  <si>
+    <t>data coder</t>
+  </si>
+  <si>
+    <t>experiment performer</t>
+  </si>
+  <si>
+    <t>funder</t>
+  </si>
+  <si>
+    <t>hardware manufacturer</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>investigator</t>
+  </si>
+  <si>
+    <t>material supplier role</t>
+  </si>
+  <si>
+    <t>peer review quality control role</t>
+  </si>
+  <si>
+    <t>software manufacturer</t>
+  </si>
+  <si>
+    <t>submitter</t>
+  </si>
+  <si>
+    <t>Submission Title</t>
+  </si>
+  <si>
+    <t>Submission Description</t>
+  </si>
+  <si>
+    <t>Person Last Name</t>
+  </si>
+  <si>
+    <t>Person Initials</t>
+  </si>
+  <si>
+    <t>Person First Name</t>
+  </si>
+  <si>
+    <t>Person Email</t>
+  </si>
+  <si>
+    <t>Person Role</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Organization Address</t>
+  </si>
+  <si>
+    <t>Organization URI</t>
+  </si>
+  <si>
+    <t>Organization Role</t>
   </si>
 </sst>
 </file>
@@ -467,10 +555,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D38CC1-C08B-3547-9AC3-2B6C7C4E4B93}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D50B49-CEBD-9943-AE64-7A3086A2DAFB}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66EB26AE-CE56-524E-AE4D-089F04DD6405}">
+          <x14:formula1>
+            <xm:f>faang_field_values!$A$1:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C9284C-FD8B-9A48-8479-644AB77AF5B0}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEAC01F1-8AC4-4440-A142-3D7CEDF68DEA}">
+          <x14:formula1>
+            <xm:f>faang_field_values!$A$1:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17093138-785B-BF4C-907B-F13A4B9A3F01}">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -593,4 +805,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E6587-05DC-6743-80F3-83AE2501768B}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="IXrUXjav0EjhH7sVzfbrfUpRTNplGyq8VTu//yDdC5XzvlPZg3J/t+ei+IrjKeXjzG9T+TcsrTFo8HaYgjHzbg==" saltValue="GqNt3BnyhERiJIEw8ZtVzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/assets/cell_line.xlsx
+++ b/src/assets/cell_line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01596668-BD61-8D46-8A1C-68F54F4562B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C636A8-71BB-7D40-9AAB-0405B689C495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32800" yWindow="-780" windowWidth="27640" windowHeight="16040" xr2:uid="{D7A8E61A-F8A2-AE4A-8DBE-BC623E5F7C90}"/>
+    <workbookView xWindow="32800" yWindow="-780" windowWidth="27640" windowHeight="16040" activeTab="3" xr2:uid="{D7A8E61A-F8A2-AE4A-8DBE-BC623E5F7C90}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Sample Name</t>
   </si>
@@ -188,13 +188,16 @@
   </si>
   <si>
     <t>Organization Role</t>
+  </si>
+  <si>
+    <t>Secondary Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +216,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,10 +249,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D38CC1-C08B-3547-9AC3-2B6C7C4E4B93}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -680,9 +692,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17093138-785B-BF4C-907B-F13A4B9A3F01}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -691,32 +705,33 @@
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,73 +747,76 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
